--- a/datos_bot.xlsx
+++ b/datos_bot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R3nE8\Documents\Programacion\PrinterBoy\chatbot_printerboy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFB8387-E53C-4E4F-BC68-5BB5222F98AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52188923-A768-45CD-BDA4-79518C855BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5016" yWindow="660" windowWidth="17280" windowHeight="8928" activeTab="3" xr2:uid="{BB83B82B-A6BF-4B56-8C1D-28A46D4FF631}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{BB83B82B-A6BF-4B56-8C1D-28A46D4FF631}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>Precio</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Copia a blanco y negro</t>
   </si>
   <si>
-    <t>Tamaño carta, papel Bond</t>
-  </si>
-  <si>
-    <t>Tamaño oficio, papel Bond</t>
-  </si>
-  <si>
     <t>Ciudad</t>
   </si>
   <si>
@@ -60,12 +54,6 @@
     <t>Horario</t>
   </si>
   <si>
-    <t>San Luis Rio Colorado</t>
-  </si>
-  <si>
-    <t>Sucursal 7 (Matriz)</t>
-  </si>
-  <si>
     <t>Sucursal 5ta</t>
   </si>
   <si>
@@ -117,21 +105,9 @@
     <t>Impresion a blanco y negro</t>
   </si>
   <si>
-    <t>Tabloide</t>
-  </si>
-  <si>
-    <t>Tamaño doble carta (tablodie)</t>
-  </si>
-  <si>
     <t>Lona</t>
   </si>
   <si>
-    <t>Metro de lona</t>
-  </si>
-  <si>
-    <t>Stickers</t>
-  </si>
-  <si>
     <t>Engomado</t>
   </si>
   <si>
@@ -154,6 +130,180 @@
   </si>
   <si>
     <t>Pregunta</t>
+  </si>
+  <si>
+    <t>Stickers, tamaño 12x18</t>
+  </si>
+  <si>
+    <t>Engomado transparente</t>
+  </si>
+  <si>
+    <t>Stickers con fondo transparente, 12x18</t>
+  </si>
+  <si>
+    <t>Engomado transparente con suaje (recortado)</t>
+  </si>
+  <si>
+    <t>Engomado con suaje (recortado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engomado PVC </t>
+  </si>
+  <si>
+    <t>tamaño 12x18</t>
+  </si>
+  <si>
+    <t>Canva 30x40cm</t>
+  </si>
+  <si>
+    <t>Canva 51x66cm</t>
+  </si>
+  <si>
+    <t>Canva 61x76cm</t>
+  </si>
+  <si>
+    <t>Canva 76x106cm</t>
+  </si>
+  <si>
+    <t>Tamaño carta, papel Opalina</t>
+  </si>
+  <si>
+    <t>Impresion tabloide</t>
+  </si>
+  <si>
+    <t>Tamaño doble carta, papel tipo revista</t>
+  </si>
+  <si>
+    <t>Tamaño 11x17, papel tipo cartulina</t>
+  </si>
+  <si>
+    <t>Tamaño carta, papel tipo cartulina</t>
+  </si>
+  <si>
+    <t>impresion tabloide grueso</t>
+  </si>
+  <si>
+    <t>tamaño 11x17, papel grueso 120lbs</t>
+  </si>
+  <si>
+    <t>Plano a color 24x36 pulgadas</t>
+  </si>
+  <si>
+    <t>Plano a color 36x44 pulgadas</t>
+  </si>
+  <si>
+    <t>Plano Blanco y negro 36x44 pulgadas</t>
+  </si>
+  <si>
+    <t>Plano Blanco y negro 24x36 pulgadas</t>
+  </si>
+  <si>
+    <t>por metro lineal</t>
+  </si>
+  <si>
+    <t>Vinil impreso en coroplas</t>
+  </si>
+  <si>
+    <t>Vinil impreso en coroplas con suaje</t>
+  </si>
+  <si>
+    <t>Vinil de corte 6x6 pulgadas</t>
+  </si>
+  <si>
+    <t>Vinil de corte 12x12 pulgadas</t>
+  </si>
+  <si>
+    <t>Vinil de corte 12x24 pulgadas</t>
+  </si>
+  <si>
+    <t>Copia a blanco y negro, por los 2 lados</t>
+  </si>
+  <si>
+    <t>Copia a color, por los 2 lados</t>
+  </si>
+  <si>
+    <t>Impresion a color, por los 2 lados</t>
+  </si>
+  <si>
+    <t>Impresion a blanco y negro, por los 2 lados</t>
+  </si>
+  <si>
+    <t>Impresion tabloide (comun), por los 2 lados</t>
+  </si>
+  <si>
+    <t>Impresion tabloide, por los 2 lados</t>
+  </si>
+  <si>
+    <t>impresion tabloide grueso, por los 2 lados</t>
+  </si>
+  <si>
+    <t>plano</t>
+  </si>
+  <si>
+    <t>Tamaño 11x17, papel Bond (comun)</t>
+  </si>
+  <si>
+    <t>Tamaño carta, papel Bond (comun)</t>
+  </si>
+  <si>
+    <t>Tamaño oficio, papel Bond (comun)</t>
+  </si>
+  <si>
+    <t>Impresion tabloide (este es el mas comun)</t>
+  </si>
+  <si>
+    <t>Impresion Tabloide Blanco y negro</t>
+  </si>
+  <si>
+    <t>Impresion Tabloide Blanco y negro, doble cara</t>
+  </si>
+  <si>
+    <t>Impresion Tabloide a color</t>
+  </si>
+  <si>
+    <t>Impresion Tabloide a color, doble cara</t>
+  </si>
+  <si>
+    <t>impresion a blanco y negro</t>
+  </si>
+  <si>
+    <t>impresion a color</t>
+  </si>
+  <si>
+    <t>imprecion blanco y negro,  2 lados</t>
+  </si>
+  <si>
+    <t>imprecion color, 2 lados</t>
+  </si>
+  <si>
+    <t>por pieza</t>
+  </si>
+  <si>
+    <t>Vinil</t>
+  </si>
+  <si>
+    <t>Sucursal 38</t>
+  </si>
+  <si>
+    <t>Sucursal Km43</t>
+  </si>
+  <si>
+    <t>Sucursal 7</t>
+  </si>
+  <si>
+    <t>Ciudad Guadalupe Victoria, Km43</t>
+  </si>
+  <si>
+    <t>San Luis Rio Colorado, Sonora</t>
+  </si>
+  <si>
+    <t>Av Revolucion y calle 38</t>
+  </si>
+  <si>
+    <t>Av Vicente Guerrero y calle 4ta</t>
+  </si>
+  <si>
+    <t>sin informacion</t>
   </si>
 </sst>
 </file>
@@ -206,13 +356,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -528,16 +679,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A532DCC-344E-494B-A3FE-DC3947968A3A}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -547,7 +698,7 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -556,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3">
         <v>7</v>
@@ -567,7 +718,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -578,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C4" s="3">
         <v>8</v>
@@ -589,18 +740,18 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3">
         <v>7</v>
@@ -608,10 +759,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
@@ -619,10 +770,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3">
         <v>15</v>
@@ -630,24 +781,486 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3">
-        <v>210</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C15" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="3">
         <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="3">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -658,16 +1271,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50759AB8-AC8D-4103-B222-CBC1102346C0}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="56.6640625" customWidth="1"/>
@@ -675,53 +1288,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2">
         <v>6535340142</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>6535177974</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>6535170204</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -746,34 +1393,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -786,7 +1433,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,34 +1444,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/datos_bot.xlsx
+++ b/datos_bot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R3nE8\Documents\Programacion\PrinterBoy\chatbot_printerboy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52188923-A768-45CD-BDA4-79518C855BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15C0DB0-FA21-4235-93DF-1B1757D67C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{BB83B82B-A6BF-4B56-8C1D-28A46D4FF631}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB83B82B-A6BF-4B56-8C1D-28A46D4FF631}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
   <si>
     <t>Precio</t>
   </si>
@@ -105,27 +105,15 @@
     <t>Impresion a blanco y negro</t>
   </si>
   <si>
-    <t>Lona</t>
-  </si>
-  <si>
     <t>Engomado</t>
   </si>
   <si>
-    <t>¿Que precio tiene una lona de X tamaño?</t>
-  </si>
-  <si>
-    <t>¿cuanto cuesta una lona de tamaño x tamaño?</t>
-  </si>
-  <si>
     <t>Sucursal</t>
   </si>
   <si>
     <t>Ubicacion</t>
   </si>
   <si>
-    <t>formula: (tamaño) * (tamaño) * 210</t>
-  </si>
-  <si>
     <t>Explicacion</t>
   </si>
   <si>
@@ -304,6 +292,27 @@
   </si>
   <si>
     <t>sin informacion</t>
+  </si>
+  <si>
+    <t>En cuanto sale una lona de (tamaño) x (tamaño)?</t>
+  </si>
+  <si>
+    <t>¿cuanto cuesta una lona de (tamaño) x (tamaño)?</t>
+  </si>
+  <si>
+    <t>¿Que precio tiene una lona de (tamaño)?</t>
+  </si>
+  <si>
+    <t>si solo te especifican un tamaño significa que vas a multiplicar ese tamaño x 1 metro por defecto: formula: (tamaño) * 1 * 210</t>
+  </si>
+  <si>
+    <t>si te piden una lona de 2 medidas (ancho y largo) la formula es: (tamaño) * (tamaño) * 210</t>
+  </si>
+  <si>
+    <t>Lonas (lona)</t>
+  </si>
+  <si>
+    <t>se vende por metro lineal</t>
   </si>
 </sst>
 </file>
@@ -681,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A532DCC-344E-494B-A3FE-DC3947968A3A}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2" s="3">
         <v>7</v>
@@ -718,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -729,7 +738,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3">
         <v>8</v>
@@ -740,7 +749,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -751,7 +760,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C6" s="3">
         <v>7</v>
@@ -762,7 +771,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
@@ -770,10 +779,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3">
         <v>15</v>
@@ -781,10 +790,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3">
         <v>15</v>
@@ -792,10 +801,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3">
         <v>10</v>
@@ -803,10 +812,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3">
         <v>18</v>
@@ -817,7 +826,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3">
         <v>10</v>
@@ -828,7 +837,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3">
         <v>10</v>
@@ -836,10 +845,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C14" s="3">
         <v>210</v>
@@ -847,10 +856,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3">
         <v>30</v>
@@ -858,10 +867,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3">
         <v>45</v>
@@ -869,10 +878,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3">
         <v>50</v>
@@ -880,10 +889,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3">
         <v>65</v>
@@ -891,10 +900,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3">
         <v>45</v>
@@ -902,10 +911,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3">
         <v>250</v>
@@ -913,10 +922,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C21" s="3">
         <v>100</v>
@@ -924,10 +933,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C22" s="3">
         <v>450</v>
@@ -935,10 +944,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C23" s="3">
         <v>600</v>
@@ -946,10 +955,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C24" s="3">
         <v>650</v>
@@ -957,10 +966,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C25" s="3">
         <v>800</v>
@@ -968,10 +977,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C26" s="3">
         <v>450</v>
@@ -979,10 +988,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C27" s="3">
         <v>200</v>
@@ -990,10 +999,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3">
         <v>420</v>
@@ -1001,10 +1010,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3">
         <v>630</v>
@@ -1012,10 +1021,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C30" s="3">
         <v>60</v>
@@ -1023,10 +1032,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C31" s="3">
         <v>110</v>
@@ -1034,10 +1043,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C32" s="3">
         <v>210</v>
@@ -1045,10 +1054,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C33" s="3">
         <v>12</v>
@@ -1056,10 +1065,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
@@ -1067,10 +1076,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3">
         <v>14</v>
@@ -1078,10 +1087,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C36" s="3">
         <v>6</v>
@@ -1089,10 +1098,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C37" s="3">
         <v>12</v>
@@ -1100,10 +1109,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
@@ -1111,10 +1120,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C39" s="3">
         <v>25</v>
@@ -1122,10 +1131,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C40" s="3">
         <v>23</v>
@@ -1133,10 +1142,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C41" s="3">
         <v>15</v>
@@ -1144,10 +1153,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C42" s="3">
         <v>28</v>
@@ -1155,10 +1164,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C43" s="3">
         <v>20</v>
@@ -1166,10 +1175,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C44" s="3">
         <v>20</v>
@@ -1177,10 +1186,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C45" s="3">
         <v>8</v>
@@ -1188,10 +1197,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C46" s="3">
         <v>12</v>
@@ -1199,10 +1208,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C47" s="3">
         <v>12</v>
@@ -1210,10 +1219,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C48" s="3">
         <v>20</v>
@@ -1221,10 +1230,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C49" s="3">
         <v>4</v>
@@ -1232,10 +1241,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C50" s="3">
         <v>9</v>
@@ -1243,10 +1252,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C51" s="3">
         <v>6</v>
@@ -1254,10 +1263,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C52" s="3">
         <v>14</v>
@@ -1288,13 +1297,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -1305,10 +1314,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1325,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1339,13 +1348,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D4">
         <v>6535170204</v>
@@ -1356,16 +1365,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
         <v>87</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1430,40 +1439,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3511174F-3C8D-484F-AF10-527540AA2A27}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="51.77734375" customWidth="1"/>
+    <col min="2" max="2" width="117.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1472,6 +1481,14 @@
       </c>
       <c r="B4" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/datos_bot.xlsx
+++ b/datos_bot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R3nE8\Documents\Programacion\PrinterBoy\chatbot_printerboy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15C0DB0-FA21-4235-93DF-1B1757D67C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6421C06E-AC84-4D5D-9AB3-BE66AA68A4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB83B82B-A6BF-4B56-8C1D-28A46D4FF631}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="100">
   <si>
     <t>Precio</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Devoluciones</t>
   </si>
   <si>
-    <t>No se aceptan devoluciones en productos personalizados</t>
-  </si>
-  <si>
     <t>a partir de 100 copias se reduce el costo a 0.5$ pesos</t>
   </si>
   <si>
@@ -129,18 +126,6 @@
     <t>Stickers con fondo transparente, 12x18</t>
   </si>
   <si>
-    <t>Engomado transparente con suaje (recortado)</t>
-  </si>
-  <si>
-    <t>Engomado con suaje (recortado)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engomado PVC </t>
-  </si>
-  <si>
-    <t>tamaño 12x18</t>
-  </si>
-  <si>
     <t>Canva 30x40cm</t>
   </si>
   <si>
@@ -153,57 +138,12 @@
     <t>Canva 76x106cm</t>
   </si>
   <si>
-    <t>Tamaño carta, papel Opalina</t>
-  </si>
-  <si>
-    <t>Impresion tabloide</t>
-  </si>
-  <si>
-    <t>Tamaño doble carta, papel tipo revista</t>
-  </si>
-  <si>
     <t>Tamaño 11x17, papel tipo cartulina</t>
   </si>
   <si>
-    <t>Tamaño carta, papel tipo cartulina</t>
-  </si>
-  <si>
-    <t>impresion tabloide grueso</t>
-  </si>
-  <si>
-    <t>tamaño 11x17, papel grueso 120lbs</t>
-  </si>
-  <si>
-    <t>Plano a color 24x36 pulgadas</t>
-  </si>
-  <si>
-    <t>Plano a color 36x44 pulgadas</t>
-  </si>
-  <si>
-    <t>Plano Blanco y negro 36x44 pulgadas</t>
-  </si>
-  <si>
-    <t>Plano Blanco y negro 24x36 pulgadas</t>
-  </si>
-  <si>
-    <t>por metro lineal</t>
-  </si>
-  <si>
     <t>Vinil impreso en coroplas</t>
   </si>
   <si>
-    <t>Vinil impreso en coroplas con suaje</t>
-  </si>
-  <si>
-    <t>Vinil de corte 6x6 pulgadas</t>
-  </si>
-  <si>
-    <t>Vinil de corte 12x12 pulgadas</t>
-  </si>
-  <si>
-    <t>Vinil de corte 12x24 pulgadas</t>
-  </si>
-  <si>
     <t>Copia a blanco y negro, por los 2 lados</t>
   </si>
   <si>
@@ -216,60 +156,21 @@
     <t>Impresion a blanco y negro, por los 2 lados</t>
   </si>
   <si>
-    <t>Impresion tabloide (comun), por los 2 lados</t>
-  </si>
-  <si>
-    <t>Impresion tabloide, por los 2 lados</t>
-  </si>
-  <si>
-    <t>impresion tabloide grueso, por los 2 lados</t>
-  </si>
-  <si>
-    <t>plano</t>
-  </si>
-  <si>
-    <t>Tamaño 11x17, papel Bond (comun)</t>
-  </si>
-  <si>
     <t>Tamaño carta, papel Bond (comun)</t>
   </si>
   <si>
     <t>Tamaño oficio, papel Bond (comun)</t>
   </si>
   <si>
-    <t>Impresion tabloide (este es el mas comun)</t>
-  </si>
-  <si>
-    <t>Impresion Tabloide Blanco y negro</t>
-  </si>
-  <si>
-    <t>Impresion Tabloide Blanco y negro, doble cara</t>
-  </si>
-  <si>
-    <t>Impresion Tabloide a color</t>
-  </si>
-  <si>
-    <t>Impresion Tabloide a color, doble cara</t>
-  </si>
-  <si>
     <t>impresion a blanco y negro</t>
   </si>
   <si>
     <t>impresion a color</t>
   </si>
   <si>
-    <t>imprecion blanco y negro,  2 lados</t>
-  </si>
-  <si>
-    <t>imprecion color, 2 lados</t>
-  </si>
-  <si>
     <t>por pieza</t>
   </si>
   <si>
-    <t>Vinil</t>
-  </si>
-  <si>
     <t>Sucursal 38</t>
   </si>
   <si>
@@ -303,16 +204,130 @@
     <t>¿Que precio tiene una lona de (tamaño)?</t>
   </si>
   <si>
-    <t>si solo te especifican un tamaño significa que vas a multiplicar ese tamaño x 1 metro por defecto: formula: (tamaño) * 1 * 210</t>
-  </si>
-  <si>
-    <t>si te piden una lona de 2 medidas (ancho y largo) la formula es: (tamaño) * (tamaño) * 210</t>
-  </si>
-  <si>
     <t>Lonas (lona)</t>
   </si>
   <si>
     <t>se vende por metro lineal</t>
+  </si>
+  <si>
+    <t>7 pesos</t>
+  </si>
+  <si>
+    <t>1 pesos</t>
+  </si>
+  <si>
+    <t>8 pesos</t>
+  </si>
+  <si>
+    <t>3 pesos</t>
+  </si>
+  <si>
+    <t>2 pesos</t>
+  </si>
+  <si>
+    <t>15 pesos</t>
+  </si>
+  <si>
+    <t>10 pesos</t>
+  </si>
+  <si>
+    <t>210 pesos</t>
+  </si>
+  <si>
+    <t>30 pesos</t>
+  </si>
+  <si>
+    <t>45 pesos</t>
+  </si>
+  <si>
+    <t>50 pesos</t>
+  </si>
+  <si>
+    <t>65 pesos</t>
+  </si>
+  <si>
+    <t>250 pesos</t>
+  </si>
+  <si>
+    <t>100 pesos</t>
+  </si>
+  <si>
+    <t>450 pesos</t>
+  </si>
+  <si>
+    <t>600 pesos</t>
+  </si>
+  <si>
+    <t>650 pesos</t>
+  </si>
+  <si>
+    <t>800 pesos</t>
+  </si>
+  <si>
+    <t>200 pesos</t>
+  </si>
+  <si>
+    <t>12 pesos</t>
+  </si>
+  <si>
+    <t>14 pesos</t>
+  </si>
+  <si>
+    <t>6 pesos</t>
+  </si>
+  <si>
+    <t>4 pesos</t>
+  </si>
+  <si>
+    <t>9 pesos</t>
+  </si>
+  <si>
+    <t>impresion en Tabloide</t>
+  </si>
+  <si>
+    <t>Impresion en papel Opalina</t>
+  </si>
+  <si>
+    <t>Tamaño carta</t>
+  </si>
+  <si>
+    <t>Plano a color</t>
+  </si>
+  <si>
+    <t>24x36 pulgadas</t>
+  </si>
+  <si>
+    <t>Plano Blanco y negro</t>
+  </si>
+  <si>
+    <t>36x44 pulgadas</t>
+  </si>
+  <si>
+    <t>No confirmar precio</t>
+  </si>
+  <si>
+    <t>Se vende por metro lineal (no calcules el total)</t>
+  </si>
+  <si>
+    <t>Vinil impreso en coroplas con suaje (corte) (recortado)</t>
+  </si>
+  <si>
+    <t>Engomado transparente con suaje (corte) (recortado)</t>
+  </si>
+  <si>
+    <t>Engomado con suaje (corte) (recortado)</t>
+  </si>
+  <si>
+    <t>impresion a blanco y negro, por los  2 lados</t>
+  </si>
+  <si>
+    <t>impresion color, por los 2 lados</t>
+  </si>
+  <si>
+    <t>No se aceptan devoluciones</t>
+  </si>
+  <si>
+    <t>(El calculo es: "(metro) * (metro) * 210  = (precio) pesos") (si solo te piden una medida considera la segunda medida como 1metro)</t>
   </si>
 </sst>
 </file>
@@ -688,19 +703,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A532DCC-344E-494B-A3FE-DC3947968A3A}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="6" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -710,567 +728,468 @@
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
       <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="3">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="3">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="3">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="3">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="3">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="3">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
       <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="3">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="3">
-        <v>14</v>
-      </c>
+      <c r="C34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G52" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1297,13 +1216,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -1314,10 +1233,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1334,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1348,13 +1267,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>6535170204</v>
@@ -1365,16 +1284,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1391,7 +1310,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1421,15 +1340,15 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1361,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1453,42 +1372,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
